--- a/data/trans_media/Q15_2-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Estudios-trans_media.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,2</t>
+          <t>1,0; 2,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>1,0; 1,12</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 1,27</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 1,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 1,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,11</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,27</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 1,59</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,21</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,11</t>
-        </is>
-      </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,6</t>
+          <t>1,19; 1,58</t>
         </is>
       </c>
     </row>
@@ -869,37 +869,37 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>1,0; 1,17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 1,18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,16</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 1,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,15</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,34</t>
+          <t>1,0; 1,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,13</t>
+          <t>1,02; 1,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,23</t>
+          <t>1,02; 1,23</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,34</t>
+          <t>1,0; 1,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,18</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,27</t>
+          <t>1,0; 2,51</t>
         </is>
       </c>
     </row>
@@ -1154,22 +1154,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,12</t>
+          <t>1,02; 1,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,59</t>
+          <t>1,07; 1,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,05</t>
+          <t>1,0; 1,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,14</t>
+          <t>1,03; 1,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,32</t>
+          <t>1,1; 1,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,02</t>
+          <t>1,0; 1,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,37</t>
+          <t>1,11; 1,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_2-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,18</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,24</t>
+          <t>1,0; 1,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,12</t>
+          <t>1,0; 1,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,27</t>
+          <t>1,05; 1,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,15</t>
+          <t>1,0; 1,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,07</t>
+          <t>1,0; 1,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,2</t>
+          <t>1,04; 1,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,11</t>
+          <t>1,0; 1,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,16</t>
+          <t>1,0; 1,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,14</t>
+          <t>1,01; 1,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,22</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,14</t>
+          <t>1,01; 1,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,06</t>
+          <t>1,0; 1,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,15</t>
+          <t>1,02; 1,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,08</t>
+          <t>1,02; 1,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
